--- a/Doc/ZigbeeDaemonJsonProtocol.xlsx
+++ b/Doc/ZigbeeDaemonJsonProtocol.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
   <si>
     <t>命令类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,10 +209,6 @@
   </si>
   <si>
     <t>0x0030</t>
-  </si>
-  <si>
-    <t>Closrues打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0x0040</t>
@@ -303,6 +299,22 @@
   </si>
   <si>
     <t>{ "status": 0, "sequence": 276, "description": "15"  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoorLock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closrues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作命令：0--open；1--close；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -799,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -855,13 +867,13 @@
     </row>
     <row r="3" spans="1:10" s="18" customFormat="1">
       <c r="A3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>10</v>
@@ -869,7 +881,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="I3" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" s="19"/>
     </row>
@@ -900,7 +912,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>31</v>
@@ -949,10 +961,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>10</v>
@@ -963,13 +975,13 @@
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="27">
       <c r="A8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
@@ -978,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="135">
@@ -1088,7 +1100,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>11</v>
@@ -1103,7 +1115,7 @@
     <row r="17" spans="1:10" s="6" customFormat="1" ht="27">
       <c r="A17" s="12"/>
       <c r="G17" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="6" customFormat="1" ht="27">
@@ -1178,7 +1190,7 @@
         <v>11</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>27</v>
@@ -1210,7 +1222,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>30</v>
@@ -1218,7 +1230,7 @@
     </row>
     <row r="23" spans="1:10" ht="14.45" customHeight="1">
       <c r="B23" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -1234,7 +1246,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>14</v>
@@ -1245,13 +1257,13 @@
     </row>
     <row r="27" spans="1:10" s="8" customFormat="1" ht="27">
       <c r="A27" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>14</v>
@@ -1260,7 +1272,7 @@
         <v>15</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>10</v>
@@ -1274,7 +1286,7 @@
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1">
       <c r="B28" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -1282,52 +1294,92 @@
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="24" t="s">
+    <row r="30" spans="1:10" s="8" customFormat="1" ht="27">
+      <c r="A30" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
+      <c r="G30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.45" customHeight="1">
+      <c r="B31" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="24"/>
+      <c r="A35" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
     </row>
-    <row r="37" spans="1:5" s="21" customFormat="1">
-      <c r="A37" s="20"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="11" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+    </row>
+    <row r="39" spans="1:5" s="21" customFormat="1">
+      <c r="A39" s="20"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>75</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A33:E35"/>
+    <mergeCell ref="A35:E37"/>
     <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B31:G31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/ZigbeeDaemonJsonProtocol.xlsx
+++ b/Doc/ZigbeeDaemonJsonProtocol.xlsx
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
